--- a/team_specific_matrix/Hannibal-La Grange_B.xlsx
+++ b/team_specific_matrix/Hannibal-La Grange_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2222222222222222</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C2">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1111111111111111</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.2222222222222222</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6</v>
+        <v>0.3125</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R8">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="S8">
-        <v>0.2</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.25</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S9">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06060606060606061</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0303030303030303</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0303030303030303</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1666666666666667</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01515151515151515</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.3636363636363636</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="R10">
-        <v>0.07575757575757576</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="S10">
-        <v>0.2575757575757576</v>
+        <v>0.2327586206896552</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J16">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1538461538461539</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="I17">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="J17">
-        <v>0.6923076923076923</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07692307692307693</v>
+        <v>0.03773584905660377</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.125</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.875</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1666666666666667</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="I19">
-        <v>0.06666666666666667</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J19">
-        <v>0.4666666666666667</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="K19">
-        <v>0.1</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03333333333333333</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06666666666666667</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1</v>
+        <v>0.0847457627118644</v>
       </c>
     </row>
   </sheetData>
